--- a/venta_departamento_los-lagos.xlsx
+++ b/venta_departamento_los-lagos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,21 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
@@ -34,52 +49,193 @@
     <t>$ 154.393.290</t>
   </si>
   <si>
+    <t>-41.14952</t>
+  </si>
+  <si>
+    <t>-73.00932</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/7325-patagonia-virgin-frutillar-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Bandurrias</t>
+  </si>
+  <si>
+    <t>$ 132.978.408</t>
+  </si>
+  <si>
+    <t>-41.32339</t>
+  </si>
+  <si>
+    <t>-72.97453</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/7025-bandurrias-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Vita Puerto Varas</t>
   </si>
   <si>
     <t>$ 91.757.530</t>
   </si>
   <si>
+    <t>-41.31749</t>
+  </si>
+  <si>
+    <t>-72.98826</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/6048-vita-puerto-varas-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Bandurrias</t>
-  </si>
-  <si>
-    <t>$ 132.978.408</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/7025-bandurrias-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Condominio Plaza Schwerter</t>
   </si>
   <si>
     <t>$ 75.093.702</t>
   </si>
   <si>
+    <t>-41.32461</t>
+  </si>
+  <si>
+    <t>-72.99323</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/6790-condominio-plaza-schwerter-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Avantgarde</t>
+  </si>
+  <si>
+    <t>$ 65.484.051</t>
+  </si>
+  <si>
+    <t>-41.46876</t>
+  </si>
+  <si>
+    <t>-72.93359</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/7176-avantgarde-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Edificio Buenavista</t>
+  </si>
+  <si>
+    <t>$ 176.833.556</t>
+  </si>
+  <si>
+    <t>-41.31275</t>
+  </si>
+  <si>
+    <t>-72.99135</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/7221-edificio-buenavista-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Edificio Valle Volcanes</t>
+  </si>
+  <si>
+    <t>$ 44.987.010</t>
+  </si>
+  <si>
+    <t>-41.46264</t>
+  </si>
+  <si>
+    <t>-72.90894</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/5906-edificio-valle-volcanes-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Alto La Paloma III</t>
+  </si>
+  <si>
+    <t>$ 34.605.393</t>
+  </si>
+  <si>
+    <t>-41.46072</t>
+  </si>
+  <si>
+    <t>-72.91559</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/6806-alto-la-paloma-iii-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Departamentos Vistalago</t>
+  </si>
+  <si>
+    <t>$ 76.264.961</t>
+  </si>
+  <si>
+    <t>-41.32463</t>
+  </si>
+  <si>
+    <t>-72.97271</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/6997-departamentos-vistalago-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Edificios Bellavista</t>
+  </si>
+  <si>
+    <t>$ 60.293.242</t>
+  </si>
+  <si>
+    <t>-40.59515</t>
+  </si>
+  <si>
+    <t>-73.11300</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/6792-edificios-bellavista-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Alta Vista Condominio Departamentos</t>
   </si>
   <si>
     <t>$ 50.736.830</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3848-alta-vista-condominio-departamentos-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Departamentos Vistalago</t>
-  </si>
-  <si>
-    <t>$ 76.264.961</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/6997-departamentos-vistalago-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+    <t>-72.93724</t>
+  </si>
+  <si>
+    <t>summary_large_image</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3848-alta-vista-condominio-departamentos-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Centro Osorno</t>
+  </si>
+  <si>
+    <t>$ 39.982.538</t>
+  </si>
+  <si>
+    <t>-40.57597</t>
+  </si>
+  <si>
+    <t>-73.13299</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/7120-edificio-centro-osorno-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Jardines de Klenner</t>
+  </si>
+  <si>
+    <t>$ 74.268.497</t>
+  </si>
+  <si>
+    <t>-41.31338</t>
+  </si>
+  <si>
+    <t>-72.98288</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/7132-edificio-jardines-de-klenner-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Condominio Jardín de los Robles 2</t>
@@ -88,34 +244,25 @@
     <t>$ 49.246.136</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/6295-condominio-jardin-de-los-robles-2-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Edificio Buenavista</t>
-  </si>
-  <si>
-    <t>$ 176.833.556</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/7221-edificio-buenavista-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Edificio Centro Osorno</t>
-  </si>
-  <si>
-    <t>$ 39.982.538</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/7120-edificio-centro-osorno-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Edificio Jardines de Klenner</t>
-  </si>
-  <si>
-    <t>$ 74.268.497</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/7132-edificio-jardines-de-klenner-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+    <t>-40.59421</t>
+  </si>
+  <si>
+    <t>-73.11063</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/6295-condominio-jardin-de-los-robles-2-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Los Volcanes</t>
+  </si>
+  <si>
+    <t>$ 44.880.532</t>
+  </si>
+  <si>
+    <t>-72.91560</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/7194-los-volcanes-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Edificio Elementos</t>
@@ -124,66 +271,39 @@
     <t>$ 108.607.694</t>
   </si>
   <si>
+    <t>-41.33039</t>
+  </si>
+  <si>
+    <t>-72.95763</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/5641-edificio-elementos-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Avantgarde</t>
-  </si>
-  <si>
-    <t>$ 65.484.051</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/7176-avantgarde-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Los Volcanes</t>
-  </si>
-  <si>
-    <t>$ 44.880.532</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/7194-los-volcanes-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Edificio Valle Volcanes</t>
-  </si>
-  <si>
-    <t>$ 44.987.010</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/5906-edificio-valle-volcanes-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Alto La Paloma III</t>
-  </si>
-  <si>
-    <t>$ 34.605.393</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/6806-alto-la-paloma-iii-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Edificios Bellavista</t>
-  </si>
-  <si>
-    <t>$ 60.293.242</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/6792-edificios-bellavista-nva?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Quintupeu 477 - Departamento 2303, Puerto Montt</t>
   </si>
   <si>
     <t>$ 30.878.658</t>
   </si>
   <si>
+    <t>-42.10653</t>
+  </si>
+  <si>
+    <t>-72.32667</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3353156-quintupeu-477-departamento-2303-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Quintupeu 477 - Departamento 2306, Puerto Montt</t>
   </si>
   <si>
+    <t>-41.40573</t>
+  </si>
+  <si>
+    <t>-72.91608</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3353163-quintupeu-477-departamento-2306-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -193,6 +313,12 @@
     <t>$ 34.073.002</t>
   </si>
   <si>
+    <t>-41.48872</t>
+  </si>
+  <si>
+    <t>-72.79540</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3546434-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -211,12 +337,24 @@
     <t>$ 35.936.369</t>
   </si>
   <si>
+    <t>-41.46667</t>
+  </si>
+  <si>
+    <t>-72.93333</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3252732-departamentocondominio-plaza-del-valle-puerto-montt-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>regimiento  1321, Puerto Montt</t>
   </si>
   <si>
+    <t>-41.46716</t>
+  </si>
+  <si>
+    <t>-72.90779</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3579415-regimiento-1321-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -232,15 +370,18 @@
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3527793-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3538806-volcan-corcovado-5800-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Volcán Corcovado 5600, Puerto Montt</t>
   </si>
   <si>
     <t>$ 37.453.683</t>
   </si>
   <si>
+    <t>-41.45695</t>
+  </si>
+  <si>
+    <t>-72.91440</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3410121-volcan-corcovado-5600-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -250,6 +391,12 @@
     <t>$ 38.598.323</t>
   </si>
   <si>
+    <t>-41.45636</t>
+  </si>
+  <si>
+    <t>-72.91531</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3096636-volcan-corcovado-5581-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -259,12 +406,24 @@
     <t>$ 39.935.651</t>
   </si>
   <si>
+    <t>-41.46342</t>
+  </si>
+  <si>
+    <t>-72.92422</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3449717-sitio-a-12-km-de-puerto-montt-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>DEPARTAMENTO, Condominio Plaza del Valle, Puerto Montt, Puerto Montt</t>
   </si>
   <si>
+    <t>-41.45181</t>
+  </si>
+  <si>
+    <t>-72.94285</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3581490-departamento-condominio-plaza-del-valle-puerto-montt-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -274,6 +433,12 @@
     <t>$ 55.901.019</t>
   </si>
   <si>
+    <t>-41.46501</t>
+  </si>
+  <si>
+    <t>-72.93713</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/2974547-padre-harter-100-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -283,6 +448,12 @@
     <t>$ 60.211.341</t>
   </si>
   <si>
+    <t>-41.48647</t>
+  </si>
+  <si>
+    <t>-72.89960</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3330103-departamento-condominio-brisas-del-sur-sector-pelluco-puerto-montt-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -292,6 +463,12 @@
     <t>$ 65.289.739</t>
   </si>
   <si>
+    <t>-41.47101</t>
+  </si>
+  <si>
+    <t>-72.93776</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3321048-centro-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -310,6 +487,12 @@
     <t>$ 69.476.981</t>
   </si>
   <si>
+    <t>-41.46781</t>
+  </si>
+  <si>
+    <t>-72.93127</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3290269-departamento-calle-buin-puerto-montt-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -319,6 +502,12 @@
     <t>$ 73.922.443</t>
   </si>
   <si>
+    <t>-41.46777</t>
+  </si>
+  <si>
+    <t>-72.93166</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3522022-costado-supermercado-jumbo-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -328,6 +517,12 @@
     <t>$ 77.196.645</t>
   </si>
   <si>
+    <t>-41.47119</t>
+  </si>
+  <si>
+    <t>-72.92642</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/2249108-serrano-84-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -337,6 +532,12 @@
     <t>$ 82.520.552</t>
   </si>
   <si>
+    <t>-41.31748</t>
+  </si>
+  <si>
+    <t>-72.98809</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3266692-del-salvador-679-departamento-3-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -355,6 +556,12 @@
     <t>$ 90.666.129</t>
   </si>
   <si>
+    <t>-41.47005</t>
+  </si>
+  <si>
+    <t>-72.93434</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3255300-lawrence-372-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -364,6 +571,12 @@
     <t>$ 94.127.139</t>
   </si>
   <si>
+    <t>-41.47122</t>
+  </si>
+  <si>
+    <t>-72.93148</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3524364-phillipi-con-roa-urzua-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -373,6 +586,12 @@
     <t>$ 103.816.178</t>
   </si>
   <si>
+    <t>-41.32956</t>
+  </si>
+  <si>
+    <t>-72.96222</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2958258-puerto-chico-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -382,6 +601,12 @@
     <t>$ 107.610.915</t>
   </si>
   <si>
+    <t>-41.46975</t>
+  </si>
+  <si>
+    <t>-72.93423</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3557659-lawrence-1-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -391,6 +616,12 @@
     <t>$ 110.127.688</t>
   </si>
   <si>
+    <t>-41.32989</t>
+  </si>
+  <si>
+    <t>-72.96307</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3333839-caupolican-1448-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -409,12 +640,21 @@
     <t>$ 117.125.944</t>
   </si>
   <si>
+    <t>-41.31693</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3468954-departamento-edificio-vita-av-salvador-puerto-varas-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Los Colonos  / Caupolican, Puerto Varas</t>
   </si>
   <si>
+    <t>-41.33018</t>
+  </si>
+  <si>
+    <t>-72.96266</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3518671-los-colonos-caupolican-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -430,12 +670,21 @@
     <t>$ 119.787.898</t>
   </si>
   <si>
+    <t>-41.33033</t>
+  </si>
+  <si>
+    <t>-72.96205</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3082073-puerto-chico-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Lawrence 372, Puerto Montt</t>
   </si>
   <si>
+    <t>-72.93433</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/2891860-lawrence-372-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -445,6 +694,12 @@
     <t>$ 120.115.706</t>
   </si>
   <si>
+    <t>-41.33004</t>
+  </si>
+  <si>
+    <t>-72.96298</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3518737-los-colonos-costanera-vicente-perez-rosales-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -454,6 +709,12 @@
     <t>$ 159.717.197</t>
   </si>
   <si>
+    <t>-41.32356</t>
+  </si>
+  <si>
+    <t>-72.97575</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2760262-calle-imperial-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -463,6 +724,12 @@
     <t>$ 193.257.808</t>
   </si>
   <si>
+    <t>-41.18900</t>
+  </si>
+  <si>
+    <t>-73.00330</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/3487829-frutillar-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -472,12 +739,24 @@
     <t>$ 210.294.309</t>
   </si>
   <si>
+    <t>-41.32302</t>
+  </si>
+  <si>
+    <t>-72.97688</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3430183-itata-1081-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 212.423.872</t>
   </si>
   <si>
+    <t>-41.15130</t>
+  </si>
+  <si>
+    <t>-73.01480</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/2892356-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -487,6 +766,12 @@
     <t>$ 212.956.262</t>
   </si>
   <si>
+    <t>-41.15468</t>
+  </si>
+  <si>
+    <t>-73.01876</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/3518787-patagonia-virgin-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -496,6 +781,12 @@
     <t>$ 220.143.536</t>
   </si>
   <si>
+    <t>-41.14860</t>
+  </si>
+  <si>
+    <t>-73.00920</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2030308-frutillar-bajo-orilla-lago-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -505,12 +796,24 @@
     <t>$ 223.604.076</t>
   </si>
   <si>
+    <t>-41.32438</t>
+  </si>
+  <si>
+    <t>-72.97685</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3392164-bio-bio--uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>bio bio 1091, Puerto Varas</t>
   </si>
   <si>
+    <t>-41.32258</t>
+  </si>
+  <si>
+    <t>-72.97638</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3315998-bio-bio-1091-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -520,6 +823,12 @@
     <t>$ 224.722.096</t>
   </si>
   <si>
+    <t>-40.58120</t>
+  </si>
+  <si>
+    <t>-73.13540</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/3516503-exclusivos-departamentos-proyecto-alto-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -544,12 +853,24 @@
     <t>$ 266.195.328</t>
   </si>
   <si>
+    <t>-41.14880</t>
+  </si>
+  <si>
+    <t>-73.00990</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/2798551-camino-punta-larga-feria-artesanias-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 271.785.430</t>
   </si>
   <si>
+    <t>-41.14970</t>
+  </si>
+  <si>
+    <t>-73.01000</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/3533457-frutillar-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -559,6 +880,12 @@
     <t>$ 276.390.609</t>
   </si>
   <si>
+    <t>-41.31272</t>
+  </si>
+  <si>
+    <t>-72.99105</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2771862-los-zorzales-1-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -568,6 +895,12 @@
     <t>$ 292.814.861</t>
   </si>
   <si>
+    <t>-41.13227</t>
+  </si>
+  <si>
+    <t>-73.02828</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/frutillar-los-lagos/2244887-frutillar-region-de-los-lagos-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -577,6 +910,12 @@
     <t>$ 298.644.538</t>
   </si>
   <si>
+    <t>-40.61189</t>
+  </si>
+  <si>
+    <t>-73.08652</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/3516505-exclusivos-departamentos-proyecto-alto-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -586,6 +925,12 @@
     <t>$ 330.508.119</t>
   </si>
   <si>
+    <t>-40.58010</t>
+  </si>
+  <si>
+    <t>-73.13620</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/osorno-los-lagos/3550268-exclusivo-y-amplio-departamento-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -595,6 +940,12 @@
     <t>$ 332.744.160</t>
   </si>
   <si>
+    <t>-41.31985</t>
+  </si>
+  <si>
+    <t>-72.97987</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2686464-edificio-el-mirador-calle-mirador-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -604,6 +955,12 @@
     <t>$ 424.315.353</t>
   </si>
   <si>
+    <t>-41.31993</t>
+  </si>
+  <si>
+    <t>-72.97979</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2771116-mirador-1-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -613,12 +970,21 @@
     <t>$ 226.266.029</t>
   </si>
   <si>
+    <t>-72.98330</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/2358369-condominio-patagonia-virgin-frutillar-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Regimiento 1321, Puerto Montt</t>
   </si>
   <si>
+    <t>-41.46717</t>
+  </si>
+  <si>
+    <t>-72.90778</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3563964-regimiento-1321-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -628,6 +994,9 @@
     <t>$ 53.239.066</t>
   </si>
   <si>
+    <t>-72.90050</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3466130-avda-nueva-oriente-cuatro-5601-cond-valle-volcanes-dos-departamento-114-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -637,6 +1006,12 @@
     <t>$ 60.019.337</t>
   </si>
   <si>
+    <t>-41.47203</t>
+  </si>
+  <si>
+    <t>-72.95384</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-montt-los-lagos/3579053-avenida-presidente-salvador-allende-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -646,6 +1021,12 @@
     <t>$ 106.075.178</t>
   </si>
   <si>
+    <t>-41.32999</t>
+  </si>
+  <si>
+    <t>-72.96265</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3568897-caupolican-puerto-varas-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -659,6 +1040,12 @@
   </si>
   <si>
     <t>$ 181.012.823</t>
+  </si>
+  <si>
+    <t>-41.33008</t>
+  </si>
+  <si>
+    <t>-72.96257</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/puerto-varas-los-lagos/3580405-caupolican-puerto-varas-uda?tp=2&amp;op=1&amp;iug=450&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
@@ -1002,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1399,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,1179 +1412,2364 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>7325</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>110.11</v>
+      </c>
+      <c r="E2">
+        <v>184</v>
+      </c>
+      <c r="F2">
+        <v>147.055</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
+        <v>7025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E3">
+        <v>133.97</v>
+      </c>
+      <c r="F3">
+        <v>103.115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>6048</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>7025</v>
-      </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>54.7</v>
+      </c>
+      <c r="E4">
+        <v>97.25</v>
+      </c>
+      <c r="F4">
+        <v>75.97499999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>6790</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>57.91</v>
+      </c>
+      <c r="E5">
+        <v>81.64</v>
+      </c>
+      <c r="F5">
+        <v>69.77500000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
+        <v>7176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>33.64</v>
+      </c>
+      <c r="E6">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="F6">
+        <v>49.7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>7221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>108</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5906</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>6806</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>48.67</v>
+      </c>
+      <c r="E9">
+        <v>49.2</v>
+      </c>
+      <c r="F9">
+        <v>48.935</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>6997</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>37.43</v>
+      </c>
+      <c r="E10">
+        <v>88.68000000000001</v>
+      </c>
+      <c r="F10">
+        <v>63.05500000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>6792</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>48.94</v>
+      </c>
+      <c r="E11">
+        <v>60.5</v>
+      </c>
+      <c r="F11">
+        <v>54.72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>3848</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6997</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>52.52</v>
+      </c>
+      <c r="E12">
+        <v>62.48</v>
+      </c>
+      <c r="F12">
+        <v>57.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>7120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>24.2</v>
+      </c>
+      <c r="E13">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>48.6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>7132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>49.13</v>
+      </c>
+      <c r="E14">
+        <v>114.22</v>
+      </c>
+      <c r="F14">
+        <v>81.675</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>6295</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7221</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>7120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>7132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>37.05</v>
+      </c>
+      <c r="E15">
+        <v>69.98</v>
+      </c>
+      <c r="F15">
+        <v>53.515</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>7194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>52.64</v>
+      </c>
+      <c r="E16">
+        <v>56.15</v>
+      </c>
+      <c r="F16">
+        <v>54.395</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>5641</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>7176</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>7194</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>5906</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>6806</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>6792</v>
-      </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>52.4</v>
+      </c>
+      <c r="E17">
+        <v>104.9</v>
+      </c>
+      <c r="F17">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3353156</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3353163</v>
       </c>
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>3546434</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>3523739</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="I21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3538824</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>3252732</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>3579415</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>3522229</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>3527793</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
-        <v>3538806</v>
+        <v>3522229</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>3410121</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>48</v>
+      </c>
+      <c r="F28">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>3096636</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>3449717</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="D30">
+        <v>118</v>
+      </c>
+      <c r="E30">
+        <v>1.254</v>
+      </c>
+      <c r="F30">
+        <v>59.627</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>3581490</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>58</v>
+      </c>
+      <c r="F31">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>2974547</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3330103</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="D33">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>75</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3321048</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>3041166</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3290269</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3522022</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>161</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>2249108</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="D38">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>76</v>
+      </c>
+      <c r="F38">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3266692</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3213094</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>3255300</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="D41">
+        <v>62</v>
+      </c>
+      <c r="E41">
+        <v>64</v>
+      </c>
+      <c r="F41">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>3524364</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="D42">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E42">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F42">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>2958258</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="D43">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>3557659</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>93</v>
+      </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>3333839</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+      <c r="F45">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>3526537</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>204</v>
+      </c>
+      <c r="D46">
+        <v>90</v>
+      </c>
+      <c r="E46">
+        <v>96</v>
+      </c>
+      <c r="F46">
+        <v>93</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>3468954</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="D47">
+        <v>55.54</v>
+      </c>
+      <c r="E47">
+        <v>55.54</v>
+      </c>
+      <c r="F47">
+        <v>55.54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>3518671</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="D48">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>59.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H48" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>2837075</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="D49">
+        <v>55.54</v>
+      </c>
+      <c r="E49">
+        <v>57.51</v>
+      </c>
+      <c r="F49">
+        <v>56.525</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>3082073</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="D50">
+        <v>62</v>
+      </c>
+      <c r="E50">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>2891860</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="D51">
+        <v>98</v>
+      </c>
+      <c r="E51">
+        <v>98</v>
+      </c>
+      <c r="F51">
+        <v>98</v>
+      </c>
+      <c r="G51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51" t="s">
+        <v>222</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>3518737</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>225</v>
+      </c>
+      <c r="D52">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <v>58.5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" t="s">
+        <v>227</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>2760262</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>230</v>
+      </c>
+      <c r="D53">
+        <v>97</v>
+      </c>
+      <c r="E53">
+        <v>97</v>
+      </c>
+      <c r="F53">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>3487829</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>235</v>
+      </c>
+      <c r="D54">
+        <v>115</v>
+      </c>
+      <c r="E54">
+        <v>115</v>
+      </c>
+      <c r="F54">
+        <v>115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>236</v>
+      </c>
+      <c r="H54" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>3430183</v>
       </c>
       <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55">
         <v>150</v>
       </c>
-      <c r="C55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>150</v>
+      </c>
+      <c r="F55">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>2892356</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>244</v>
+      </c>
+      <c r="D56">
+        <v>115</v>
+      </c>
+      <c r="E56">
+        <v>115</v>
+      </c>
+      <c r="F56">
+        <v>115</v>
+      </c>
+      <c r="G56" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>3518787</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>249</v>
+      </c>
+      <c r="D57">
+        <v>125</v>
+      </c>
+      <c r="E57">
+        <v>140</v>
+      </c>
+      <c r="F57">
+        <v>132.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>2030308</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>254</v>
+      </c>
+      <c r="D58">
+        <v>109</v>
+      </c>
+      <c r="E58">
+        <v>116</v>
+      </c>
+      <c r="F58">
+        <v>112.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>3392164</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>259</v>
+      </c>
+      <c r="D59">
+        <v>140</v>
+      </c>
+      <c r="E59">
+        <v>140</v>
+      </c>
+      <c r="F59">
+        <v>140</v>
+      </c>
+      <c r="G59" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" t="s">
+        <v>261</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>3315998</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>259</v>
+      </c>
+      <c r="D60">
+        <v>140</v>
+      </c>
+      <c r="E60">
+        <v>140</v>
+      </c>
+      <c r="F60">
+        <v>140</v>
+      </c>
+      <c r="G60" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" t="s">
+        <v>265</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>3516503</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>268</v>
+      </c>
+      <c r="D61">
+        <v>131</v>
+      </c>
+      <c r="E61">
+        <v>131</v>
+      </c>
+      <c r="F61">
+        <v>131</v>
+      </c>
+      <c r="G61" t="s">
+        <v>269</v>
+      </c>
+      <c r="H61" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>3516504</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>273</v>
+      </c>
+      <c r="D62">
+        <v>151</v>
+      </c>
+      <c r="E62">
+        <v>151</v>
+      </c>
+      <c r="F62">
+        <v>151</v>
+      </c>
+      <c r="G62" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>2030307</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>275</v>
+      </c>
+      <c r="D63">
+        <v>134</v>
+      </c>
+      <c r="E63">
+        <v>159</v>
+      </c>
+      <c r="F63">
+        <v>146.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" t="s">
+        <v>256</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>2798551</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>278</v>
+      </c>
+      <c r="D64">
+        <v>139</v>
+      </c>
+      <c r="E64">
+        <v>139</v>
+      </c>
+      <c r="F64">
+        <v>139</v>
+      </c>
+      <c r="G64" t="s">
+        <v>279</v>
+      </c>
+      <c r="H64" t="s">
+        <v>280</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>3533457</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>282</v>
+      </c>
+      <c r="D65">
+        <v>113</v>
+      </c>
+      <c r="E65">
+        <v>140</v>
+      </c>
+      <c r="F65">
+        <v>126.5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>283</v>
+      </c>
+      <c r="H65" t="s">
+        <v>284</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>2771862</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>287</v>
+      </c>
+      <c r="D66">
+        <v>140</v>
+      </c>
+      <c r="E66">
+        <v>160</v>
+      </c>
+      <c r="F66">
+        <v>150</v>
+      </c>
+      <c r="G66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>2244887</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>292</v>
+      </c>
+      <c r="D67">
+        <v>139</v>
+      </c>
+      <c r="E67">
+        <v>139</v>
+      </c>
+      <c r="F67">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" t="s">
+        <v>294</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>2798550</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>292</v>
+      </c>
+      <c r="D68">
+        <v>139</v>
+      </c>
+      <c r="E68">
+        <v>160</v>
+      </c>
+      <c r="F68">
+        <v>149.5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>279</v>
+      </c>
+      <c r="H68" t="s">
+        <v>280</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>3516505</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>297</v>
+      </c>
+      <c r="D69">
+        <v>172</v>
+      </c>
+      <c r="E69">
+        <v>172</v>
+      </c>
+      <c r="F69">
+        <v>172</v>
+      </c>
+      <c r="G69" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>3550268</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>302</v>
+      </c>
+      <c r="D70">
+        <v>218</v>
+      </c>
+      <c r="E70">
+        <v>218</v>
+      </c>
+      <c r="F70">
+        <v>218</v>
+      </c>
+      <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="H70" t="s">
+        <v>304</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2686464</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>307</v>
+      </c>
+      <c r="D71">
+        <v>221</v>
+      </c>
+      <c r="E71">
+        <v>221</v>
+      </c>
+      <c r="F71">
+        <v>221</v>
+      </c>
+      <c r="G71" t="s">
+        <v>308</v>
+      </c>
+      <c r="H71" t="s">
+        <v>309</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>2771116</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>312</v>
+      </c>
+      <c r="D72">
+        <v>192</v>
+      </c>
+      <c r="E72">
+        <v>222</v>
+      </c>
+      <c r="F72">
+        <v>207</v>
+      </c>
+      <c r="G72" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" t="s">
+        <v>314</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>2358369</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="D73">
+        <v>140</v>
+      </c>
+      <c r="E73">
+        <v>160</v>
+      </c>
+      <c r="F73">
+        <v>150</v>
+      </c>
+      <c r="G73" t="s">
+        <v>318</v>
+      </c>
+      <c r="H73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>3563964</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="D74">
+        <v>39</v>
+      </c>
+      <c r="E74">
+        <v>39</v>
+      </c>
+      <c r="F74">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s">
+        <v>321</v>
+      </c>
+      <c r="H74" t="s">
+        <v>322</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>3466130</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="D75">
+        <v>60</v>
+      </c>
+      <c r="E75">
+        <v>63</v>
+      </c>
+      <c r="F75">
+        <v>61.5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>3579053</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>328</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>329</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>330</v>
+      </c>
+      <c r="H76" t="s">
+        <v>331</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>3568897</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>334</v>
+      </c>
+      <c r="D77">
+        <v>65</v>
+      </c>
+      <c r="E77">
+        <v>65</v>
+      </c>
+      <c r="F77">
+        <v>65</v>
+      </c>
+      <c r="G77" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" t="s">
+        <v>336</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>2946530</v>
       </c>
       <c r="B78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" t="s">
+        <v>339</v>
+      </c>
+      <c r="D78">
+        <v>58</v>
+      </c>
+      <c r="E78">
+        <v>62</v>
+      </c>
+      <c r="F78">
+        <v>60</v>
+      </c>
+      <c r="G78" t="s">
         <v>211</v>
       </c>
-      <c r="C78" t="s">
+      <c r="H78" t="s">
         <v>212</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="I78" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>3580405</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>215</v>
+        <v>341</v>
+      </c>
+      <c r="D79">
+        <v>110</v>
+      </c>
+      <c r="E79">
+        <v>110</v>
+      </c>
+      <c r="F79">
+        <v>110</v>
+      </c>
+      <c r="G79" t="s">
+        <v>342</v>
+      </c>
+      <c r="H79" t="s">
+        <v>343</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
